--- a/Project/WebService Data Dictionary.xlsx
+++ b/Project/WebService Data Dictionary.xlsx
@@ -5,19 +5,20 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Testing_2022\Project\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Selenium_Study\SELENIUM_NOTES\Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6AAA6EA-C33F-4A5D-9090-4C0ED7FE27CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0AA8F7EB-0070-48AD-BA74-09BD4B56E0EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{62E0AE0B-F734-4650-AB67-6025CE3015E4}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="1" activeTab="5" xr2:uid="{62E0AE0B-F734-4650-AB67-6025CE3015E4}"/>
   </bookViews>
   <sheets>
     <sheet name="Claim Registration" sheetId="1" r:id="rId1"/>
-    <sheet name="Survey Appoitment" sheetId="2" r:id="rId2"/>
-    <sheet name="Survey Completion" sheetId="3" r:id="rId3"/>
-    <sheet name="Document Upload" sheetId="4" r:id="rId4"/>
-    <sheet name="Claim Closing" sheetId="5" r:id="rId5"/>
+    <sheet name="getClaim Details" sheetId="6" r:id="rId2"/>
+    <sheet name="Survey Appoitment" sheetId="2" r:id="rId3"/>
+    <sheet name="Survey Completion" sheetId="3" r:id="rId4"/>
+    <sheet name="Document Upload" sheetId="4" r:id="rId5"/>
+    <sheet name="Claim Closing" sheetId="5" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="330" uniqueCount="128">
   <si>
     <t>Sr No</t>
   </si>
@@ -147,69 +148,6 @@
     <t>Flag value is either -HONDA,HYUNDAI,FORD,MARUTI other values are not allowed, system should trigger proper validation message</t>
   </si>
   <si>
-    <t xml:space="preserve">Claim Registration URL </t>
-  </si>
-  <si>
-    <t>localhost:9090/clm-register</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Request PayLoad </t>
-  </si>
-  <si>
-    <t>{</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    "coverNoteNo":"HA-100123",</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    "customerName": "Kartik",</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    "placeOfAccident": "Nashik",</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    "vehicalRegNo": "MH-12 RT 2632",</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    "licenNo": "MH-0619850034761",</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    "accidentDate":"08-07-22",</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    "causeOfAccident": "Break Fail",</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    "dateOfBith": "05-06-2022",</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    "driveName":"Nayan Tara",</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    "mobileNo": "9764450273",</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    "workshopId":"1001",</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    "workshopCity":"Nashik",</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    "delearClaimId":"PK-22-1801-0000456",</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    "delearMobileNo": "9764450273",</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    "delearFlag": "HONDA"</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    </t>
-  </si>
-  <si>
-    <t>}</t>
-  </si>
-  <si>
     <t>Response Fileds</t>
   </si>
   <si>
@@ -303,9 +241,6 @@
     <t>Response message</t>
   </si>
   <si>
-    <t>If claim registred successfully it return that claim number, if not then its value is blanck</t>
-  </si>
-  <si>
     <t xml:space="preserve">Delear Policy number </t>
   </si>
   <si>
@@ -324,29 +259,227 @@
     <t>Insurance Org Claim number</t>
   </si>
   <si>
-    <t>Reponse PayLoad</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    "ack": "0",</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    "message": "message",</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    "clmNo": "",</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    "coverNoteNo": null</t>
-  </si>
-  <si>
     <t>IT Remark</t>
+  </si>
+  <si>
+    <t>If claim registred successfully it return that claim number, if not then its value is blank</t>
+  </si>
+  <si>
+    <t>Acceptance Criteria For Claim Registration</t>
+  </si>
+  <si>
+    <t>get Claim details of Registered Claim</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Service name: </t>
+  </si>
+  <si>
+    <t>policyNo</t>
+  </si>
+  <si>
+    <t>regDate</t>
+  </si>
+  <si>
+    <t>clmStatus</t>
+  </si>
+  <si>
+    <t>respmessage</t>
+  </si>
+  <si>
+    <t>Delear Policy number</t>
+  </si>
+  <si>
+    <t>Insurance Compnay Claim number</t>
+  </si>
+  <si>
+    <t>Insurance Company Policy number</t>
+  </si>
+  <si>
+    <t>Policy Holder Name</t>
+  </si>
+  <si>
+    <t>Accident Date in yyyy-MM-dd format</t>
+  </si>
+  <si>
+    <t>Vehical registration number</t>
+  </si>
+  <si>
+    <t>Driver Licen number</t>
+  </si>
+  <si>
+    <t>Policy Holder date of birth in yyyy-MM-dd format</t>
+  </si>
+  <si>
+    <t>Place of accident</t>
+  </si>
+  <si>
+    <t>Ack</t>
+  </si>
+  <si>
+    <t>customer mobile number</t>
+  </si>
+  <si>
+    <t>workshop id</t>
+  </si>
+  <si>
+    <t>workshop city</t>
+  </si>
+  <si>
+    <t>delear Claim number</t>
+  </si>
+  <si>
+    <t>delear Mobile Number</t>
+  </si>
+  <si>
+    <t>delear Flag</t>
+  </si>
+  <si>
+    <t>claim registration date</t>
+  </si>
+  <si>
+    <t>Claim Status Message</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Claim Status </t>
+  </si>
+  <si>
+    <t>Response Message</t>
+  </si>
+  <si>
+    <t>Response fields</t>
+  </si>
+  <si>
+    <t>Request fields</t>
+  </si>
+  <si>
+    <t>sr no</t>
+  </si>
+  <si>
+    <t>field name</t>
+  </si>
+  <si>
+    <t>description</t>
+  </si>
+  <si>
+    <t xml:space="preserve">validation </t>
+  </si>
+  <si>
+    <t>Service Name</t>
+  </si>
+  <si>
+    <t>Surveyor Appoitment</t>
+  </si>
+  <si>
+    <t>surveyorId</t>
+  </si>
+  <si>
+    <t>surveyorName</t>
+  </si>
+  <si>
+    <t>claimId</t>
+  </si>
+  <si>
+    <t>Surveyor id</t>
+  </si>
+  <si>
+    <t>Surveyor name</t>
+  </si>
+  <si>
+    <t>System should validate surveyor id</t>
+  </si>
+  <si>
+    <t>System should validate Surveyor name</t>
+  </si>
+  <si>
+    <t>Insurance company claim number</t>
+  </si>
+  <si>
+    <t>system should validate claim number</t>
+  </si>
+  <si>
+    <t>Response Fields</t>
+  </si>
+  <si>
+    <t>acknowledgement number either 0 or 1 , 0 for failure case and 1 for success case</t>
+  </si>
+  <si>
+    <t>its value is either 0 or 1 other values are not allowed</t>
+  </si>
+  <si>
+    <t>Either success or failure Message</t>
+  </si>
+  <si>
+    <t>Should be same as provided while sending request</t>
+  </si>
+  <si>
+    <t>Survey Completion</t>
+  </si>
+  <si>
+    <t>remark</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Survey Completion Remark </t>
+  </si>
+  <si>
+    <t>Srvice name</t>
+  </si>
+  <si>
+    <t>Document Upload</t>
+  </si>
+  <si>
+    <t>Request Fields</t>
+  </si>
+  <si>
+    <t>Field name</t>
+  </si>
+  <si>
+    <t>docName</t>
+  </si>
+  <si>
+    <t>docExtention</t>
+  </si>
+  <si>
+    <t>claimNumber</t>
+  </si>
+  <si>
+    <t>docData</t>
+  </si>
+  <si>
+    <t>Document Name</t>
+  </si>
+  <si>
+    <t>Document Extention</t>
+  </si>
+  <si>
+    <t>Document Data</t>
+  </si>
+  <si>
+    <t>insurance company claim number</t>
+  </si>
+  <si>
+    <t>should be pdf</t>
+  </si>
+  <si>
+    <t>should be in base 64 string format</t>
+  </si>
+  <si>
+    <t>Service name : Claim Closing</t>
+  </si>
+  <si>
+    <t>closingRemark</t>
+  </si>
+  <si>
+    <t>claimNo</t>
+  </si>
+  <si>
+    <t>Claim Closing Remark</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -378,20 +511,6 @@
     </font>
     <font>
       <sz val="16"/>
-      <color rgb="FFFF0000"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="16"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="16"/>
       <color rgb="FF002060"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -404,13 +523,57 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="3">
@@ -449,9 +612,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -467,31 +629,53 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -806,10 +990,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32FE5CE6-FFD0-46FD-82A3-5F50E17B89F2}">
-  <dimension ref="A1:N57"/>
+  <dimension ref="A1:N34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+    <sheetView topLeftCell="A26" workbookViewId="0">
+      <selection activeCell="B30" sqref="B30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -823,708 +1007,577 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="21" x14ac:dyDescent="0.4">
-      <c r="B1" s="14" t="s">
-        <v>49</v>
-      </c>
-      <c r="C1" s="14"/>
-      <c r="D1" s="14"/>
-      <c r="E1" s="15"/>
+      <c r="B1" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="C1" s="12"/>
+      <c r="D1" s="12"/>
+      <c r="E1" s="8"/>
     </row>
     <row r="2" spans="1:14" ht="21" x14ac:dyDescent="0.4">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="D2" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="E2" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="F2" s="5" t="s">
+      <c r="E2" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="F2" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="G2" s="5" t="s">
-        <v>83</v>
-      </c>
-      <c r="H2" s="4"/>
-      <c r="I2" s="4"/>
-      <c r="J2" s="4"/>
-      <c r="K2" s="4"/>
-      <c r="L2" s="4"/>
-      <c r="M2" s="4"/>
-      <c r="N2" s="4"/>
+      <c r="G2" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="H2" s="3"/>
+      <c r="I2" s="3"/>
+      <c r="J2" s="3"/>
+      <c r="K2" s="3"/>
+      <c r="L2" s="3"/>
+      <c r="M2" s="3"/>
+      <c r="N2" s="3"/>
     </row>
     <row r="3" spans="1:14" ht="105" x14ac:dyDescent="0.4">
-      <c r="A3" s="5">
+      <c r="A3" s="4">
         <v>1</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="B3" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="5" t="s">
+      <c r="C3" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="D3" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="E3" s="8" t="s">
-        <v>51</v>
-      </c>
-      <c r="F3" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="G3" s="4"/>
-      <c r="H3" s="4"/>
-      <c r="I3" s="4"/>
-      <c r="J3" s="4"/>
-      <c r="K3" s="4"/>
-      <c r="L3" s="4"/>
-      <c r="M3" s="4"/>
-      <c r="N3" s="4"/>
+      <c r="D3" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="E3" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F3" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="G3" s="3"/>
+      <c r="H3" s="3"/>
+      <c r="I3" s="3"/>
+      <c r="J3" s="3"/>
+      <c r="K3" s="3"/>
+      <c r="L3" s="3"/>
+      <c r="M3" s="3"/>
+      <c r="N3" s="3"/>
     </row>
     <row r="4" spans="1:14" ht="63" x14ac:dyDescent="0.4">
-      <c r="A4" s="5">
+      <c r="A4" s="4">
         <v>2</v>
       </c>
-      <c r="B4" s="5" t="s">
+      <c r="B4" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="5" t="s">
+      <c r="C4" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="D4" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="E4" s="8" t="s">
-        <v>53</v>
-      </c>
-      <c r="F4" s="5"/>
-      <c r="G4" s="4"/>
-      <c r="H4" s="4"/>
-      <c r="I4" s="4"/>
-      <c r="J4" s="4"/>
-      <c r="K4" s="4"/>
-      <c r="L4" s="4"/>
-      <c r="M4" s="4"/>
-      <c r="N4" s="4"/>
+      <c r="D4" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="E4" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="F4" s="4"/>
+      <c r="G4" s="3"/>
+      <c r="H4" s="3"/>
+      <c r="I4" s="3"/>
+      <c r="J4" s="3"/>
+      <c r="K4" s="3"/>
+      <c r="L4" s="3"/>
+      <c r="M4" s="3"/>
+      <c r="N4" s="3"/>
     </row>
     <row r="5" spans="1:14" ht="42" x14ac:dyDescent="0.4">
-      <c r="A5" s="5">
+      <c r="A5" s="4">
         <v>3</v>
       </c>
-      <c r="B5" s="5" t="s">
+      <c r="B5" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="5" t="s">
+      <c r="C5" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="D5" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="E5" s="8" t="s">
-        <v>54</v>
-      </c>
-      <c r="F5" s="5"/>
-      <c r="G5" s="4"/>
-      <c r="H5" s="4"/>
-      <c r="I5" s="4"/>
-      <c r="J5" s="4"/>
-      <c r="K5" s="4"/>
-      <c r="L5" s="4"/>
-      <c r="M5" s="4"/>
-      <c r="N5" s="4"/>
+      <c r="D5" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="F5" s="4"/>
+      <c r="G5" s="3"/>
+      <c r="H5" s="3"/>
+      <c r="I5" s="3"/>
+      <c r="J5" s="3"/>
+      <c r="K5" s="3"/>
+      <c r="L5" s="3"/>
+      <c r="M5" s="3"/>
+      <c r="N5" s="3"/>
     </row>
     <row r="6" spans="1:14" ht="63" x14ac:dyDescent="0.4">
-      <c r="A6" s="5">
+      <c r="A6" s="4">
         <v>4</v>
       </c>
-      <c r="B6" s="5" t="s">
+      <c r="B6" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C6" s="5" t="s">
+      <c r="C6" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="D6" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="E6" s="8" t="s">
-        <v>55</v>
-      </c>
-      <c r="F6" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="G6" s="4"/>
-      <c r="H6" s="4"/>
-      <c r="I6" s="4"/>
-      <c r="J6" s="4"/>
-      <c r="K6" s="4"/>
-      <c r="L6" s="4"/>
-      <c r="M6" s="4"/>
-      <c r="N6" s="4"/>
+      <c r="D6" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="F6" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="G6" s="3"/>
+      <c r="H6" s="3"/>
+      <c r="I6" s="3"/>
+      <c r="J6" s="3"/>
+      <c r="K6" s="3"/>
+      <c r="L6" s="3"/>
+      <c r="M6" s="3"/>
+      <c r="N6" s="3"/>
     </row>
     <row r="7" spans="1:14" ht="231" x14ac:dyDescent="0.4">
-      <c r="A7" s="5">
+      <c r="A7" s="4">
         <v>5</v>
       </c>
-      <c r="B7" s="16" t="s">
+      <c r="B7" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="5" t="s">
+      <c r="C7" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="D7" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="E7" s="8" t="s">
-        <v>57</v>
-      </c>
-      <c r="F7" s="7" t="s">
+      <c r="D7" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="F7" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="G7" s="4"/>
-      <c r="H7" s="4"/>
-      <c r="I7" s="4"/>
-      <c r="J7" s="4"/>
-      <c r="K7" s="4"/>
-      <c r="L7" s="4"/>
-      <c r="M7" s="4"/>
-      <c r="N7" s="4"/>
+      <c r="G7" s="3"/>
+      <c r="H7" s="3"/>
+      <c r="I7" s="3"/>
+      <c r="J7" s="3"/>
+      <c r="K7" s="3"/>
+      <c r="L7" s="3"/>
+      <c r="M7" s="3"/>
+      <c r="N7" s="3"/>
     </row>
     <row r="8" spans="1:14" ht="42" x14ac:dyDescent="0.4">
-      <c r="A8" s="5">
+      <c r="A8" s="4">
         <v>6</v>
       </c>
-      <c r="B8" s="5" t="s">
+      <c r="B8" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C8" s="5" t="s">
+      <c r="C8" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="D8" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="E8" s="8" t="s">
-        <v>58</v>
-      </c>
-      <c r="F8" s="5"/>
-      <c r="G8" s="4"/>
-      <c r="H8" s="4"/>
-      <c r="I8" s="4"/>
-      <c r="J8" s="4"/>
-      <c r="K8" s="4"/>
-      <c r="L8" s="4"/>
-      <c r="M8" s="4"/>
-      <c r="N8" s="4"/>
+      <c r="D8" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="E8" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="F8" s="4"/>
+      <c r="G8" s="3"/>
+      <c r="H8" s="3"/>
+      <c r="I8" s="3"/>
+      <c r="J8" s="3"/>
+      <c r="K8" s="3"/>
+      <c r="L8" s="3"/>
+      <c r="M8" s="3"/>
+      <c r="N8" s="3"/>
     </row>
     <row r="9" spans="1:14" ht="63" x14ac:dyDescent="0.4">
-      <c r="A9" s="5">
+      <c r="A9" s="4">
         <v>7</v>
       </c>
-      <c r="B9" s="5" t="s">
+      <c r="B9" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C9" s="5" t="s">
+      <c r="C9" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="D9" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="E9" s="8" t="s">
-        <v>59</v>
-      </c>
-      <c r="F9" s="8" t="s">
-        <v>60</v>
-      </c>
-      <c r="G9" s="4"/>
-      <c r="H9" s="4"/>
-      <c r="I9" s="4"/>
-      <c r="J9" s="4"/>
-      <c r="K9" s="4"/>
-      <c r="L9" s="4"/>
-      <c r="M9" s="4"/>
-      <c r="N9" s="4"/>
+      <c r="D9" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="G9" s="3"/>
+      <c r="H9" s="3"/>
+      <c r="I9" s="3"/>
+      <c r="J9" s="3"/>
+      <c r="K9" s="3"/>
+      <c r="L9" s="3"/>
+      <c r="M9" s="3"/>
+      <c r="N9" s="3"/>
     </row>
     <row r="10" spans="1:14" ht="84" x14ac:dyDescent="0.4">
-      <c r="A10" s="5">
+      <c r="A10" s="4">
         <v>8</v>
       </c>
-      <c r="B10" s="5" t="s">
+      <c r="B10" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="C10" s="5" t="s">
+      <c r="C10" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="D10" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="E10" s="8" t="s">
-        <v>61</v>
-      </c>
-      <c r="F10" s="8" t="s">
-        <v>62</v>
-      </c>
-      <c r="G10" s="4"/>
-      <c r="H10" s="4"/>
-      <c r="I10" s="4"/>
-      <c r="J10" s="4"/>
-      <c r="K10" s="4"/>
-      <c r="L10" s="4"/>
-      <c r="M10" s="4"/>
-      <c r="N10" s="4"/>
+      <c r="D10" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="E10" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="G10" s="3"/>
+      <c r="H10" s="3"/>
+      <c r="I10" s="3"/>
+      <c r="J10" s="3"/>
+      <c r="K10" s="3"/>
+      <c r="L10" s="3"/>
+      <c r="M10" s="3"/>
+      <c r="N10" s="3"/>
     </row>
     <row r="11" spans="1:14" ht="42" x14ac:dyDescent="0.4">
-      <c r="A11" s="5">
+      <c r="A11" s="4">
         <v>9</v>
       </c>
-      <c r="B11" s="5" t="s">
+      <c r="B11" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="C11" s="5" t="s">
+      <c r="C11" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="D11" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="E11" s="8" t="s">
-        <v>63</v>
-      </c>
-      <c r="F11" s="5"/>
-      <c r="G11" s="4"/>
-      <c r="H11" s="4"/>
-      <c r="I11" s="4"/>
-      <c r="J11" s="4"/>
-      <c r="K11" s="4"/>
-      <c r="L11" s="4"/>
-      <c r="M11" s="4"/>
-      <c r="N11" s="4"/>
+      <c r="D11" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="E11" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="F11" s="4"/>
+      <c r="G11" s="3"/>
+      <c r="H11" s="3"/>
+      <c r="I11" s="3"/>
+      <c r="J11" s="3"/>
+      <c r="K11" s="3"/>
+      <c r="L11" s="3"/>
+      <c r="M11" s="3"/>
+      <c r="N11" s="3"/>
     </row>
     <row r="12" spans="1:14" ht="21" x14ac:dyDescent="0.4">
-      <c r="A12" s="5">
+      <c r="A12" s="4">
         <v>10</v>
       </c>
-      <c r="B12" s="5" t="s">
+      <c r="B12" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="C12" s="5" t="s">
+      <c r="C12" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="D12" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="E12" s="6"/>
-      <c r="F12" s="5" t="s">
+      <c r="D12" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="E12" s="5"/>
+      <c r="F12" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="G12" s="4"/>
-      <c r="H12" s="4"/>
-      <c r="I12" s="4"/>
-      <c r="J12" s="4"/>
-      <c r="K12" s="4"/>
-      <c r="L12" s="4"/>
-      <c r="M12" s="4"/>
-      <c r="N12" s="4"/>
+      <c r="G12" s="3"/>
+      <c r="H12" s="3"/>
+      <c r="I12" s="3"/>
+      <c r="J12" s="3"/>
+      <c r="K12" s="3"/>
+      <c r="L12" s="3"/>
+      <c r="M12" s="3"/>
+      <c r="N12" s="3"/>
     </row>
     <row r="13" spans="1:14" ht="21" x14ac:dyDescent="0.4">
-      <c r="A13" s="5">
+      <c r="A13" s="4">
         <v>11</v>
       </c>
-      <c r="B13" s="5" t="s">
+      <c r="B13" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="C13" s="5" t="s">
+      <c r="C13" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="D13" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="E13" s="6"/>
-      <c r="F13" s="5" t="s">
+      <c r="D13" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="E13" s="5"/>
+      <c r="F13" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="G13" s="4"/>
-      <c r="H13" s="4"/>
-      <c r="I13" s="4"/>
-      <c r="J13" s="4"/>
-      <c r="K13" s="4"/>
-      <c r="L13" s="4"/>
-      <c r="M13" s="4"/>
-      <c r="N13" s="4"/>
+      <c r="G13" s="3"/>
+      <c r="H13" s="3"/>
+      <c r="I13" s="3"/>
+      <c r="J13" s="3"/>
+      <c r="K13" s="3"/>
+      <c r="L13" s="3"/>
+      <c r="M13" s="3"/>
+      <c r="N13" s="3"/>
     </row>
     <row r="14" spans="1:14" ht="21" x14ac:dyDescent="0.4">
-      <c r="A14" s="5">
+      <c r="A14" s="4">
         <v>12</v>
       </c>
-      <c r="B14" s="5" t="s">
+      <c r="B14" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="C14" s="5" t="s">
+      <c r="C14" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="D14" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="E14" s="6"/>
-      <c r="F14" s="5"/>
-      <c r="G14" s="4"/>
-      <c r="H14" s="4"/>
-      <c r="I14" s="4"/>
-      <c r="J14" s="4"/>
-      <c r="K14" s="4"/>
-      <c r="L14" s="4"/>
-      <c r="M14" s="4"/>
-      <c r="N14" s="4"/>
+      <c r="D14" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="E14" s="5"/>
+      <c r="F14" s="4"/>
+      <c r="G14" s="3"/>
+      <c r="H14" s="3"/>
+      <c r="I14" s="3"/>
+      <c r="J14" s="3"/>
+      <c r="K14" s="3"/>
+      <c r="L14" s="3"/>
+      <c r="M14" s="3"/>
+      <c r="N14" s="3"/>
     </row>
     <row r="15" spans="1:14" ht="21" x14ac:dyDescent="0.4">
-      <c r="A15" s="5">
+      <c r="A15" s="4">
         <v>13</v>
       </c>
-      <c r="B15" s="5" t="s">
+      <c r="B15" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="C15" s="5" t="s">
+      <c r="C15" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="D15" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="E15" s="6"/>
-      <c r="F15" s="5"/>
-      <c r="G15" s="4"/>
-      <c r="H15" s="4"/>
-      <c r="I15" s="4"/>
-      <c r="J15" s="4"/>
-      <c r="K15" s="4"/>
-      <c r="L15" s="4"/>
-      <c r="M15" s="4"/>
-      <c r="N15" s="4"/>
+      <c r="D15" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="E15" s="5"/>
+      <c r="F15" s="4"/>
+      <c r="G15" s="3"/>
+      <c r="H15" s="3"/>
+      <c r="I15" s="3"/>
+      <c r="J15" s="3"/>
+      <c r="K15" s="3"/>
+      <c r="L15" s="3"/>
+      <c r="M15" s="3"/>
+      <c r="N15" s="3"/>
     </row>
     <row r="16" spans="1:14" ht="21" x14ac:dyDescent="0.4">
-      <c r="A16" s="5">
+      <c r="A16" s="4">
         <v>14</v>
       </c>
-      <c r="B16" s="5" t="s">
+      <c r="B16" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="C16" s="5" t="s">
+      <c r="C16" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="D16" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="E16" s="6"/>
-      <c r="F16" s="5" t="s">
+      <c r="D16" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="E16" s="5"/>
+      <c r="F16" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="G16" s="4"/>
-      <c r="H16" s="4"/>
-      <c r="I16" s="4"/>
-      <c r="J16" s="4"/>
-      <c r="K16" s="4"/>
-      <c r="L16" s="4"/>
-      <c r="M16" s="4"/>
-      <c r="N16" s="4"/>
+      <c r="G16" s="3"/>
+      <c r="H16" s="3"/>
+      <c r="I16" s="3"/>
+      <c r="J16" s="3"/>
+      <c r="K16" s="3"/>
+      <c r="L16" s="3"/>
+      <c r="M16" s="3"/>
+      <c r="N16" s="3"/>
     </row>
     <row r="17" spans="1:14" ht="42" x14ac:dyDescent="0.4">
-      <c r="A17" s="5">
+      <c r="A17" s="4">
         <v>15</v>
       </c>
-      <c r="B17" s="5" t="s">
+      <c r="B17" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="C17" s="5" t="s">
+      <c r="C17" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="D17" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="E17" s="6"/>
-      <c r="F17" s="7" t="s">
+      <c r="D17" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="E17" s="5"/>
+      <c r="F17" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="G17" s="4"/>
-      <c r="H17" s="4"/>
-      <c r="I17" s="4"/>
-      <c r="J17" s="4"/>
-      <c r="K17" s="4"/>
-      <c r="L17" s="4"/>
-      <c r="M17" s="4"/>
-      <c r="N17" s="4"/>
+      <c r="G17" s="3"/>
+      <c r="H17" s="3"/>
+      <c r="I17" s="3"/>
+      <c r="J17" s="3"/>
+      <c r="K17" s="3"/>
+      <c r="L17" s="3"/>
+      <c r="M17" s="3"/>
+      <c r="N17" s="3"/>
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="19" spans="1:14" ht="63" x14ac:dyDescent="0.4">
-      <c r="A19" t="s">
+    <row r="20" spans="1:14" ht="21" x14ac:dyDescent="0.4">
+      <c r="B20" s="13" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14" ht="21" x14ac:dyDescent="0.4">
+      <c r="A22" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="B22" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="C22" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="D22" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="E22" s="4" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14" ht="147" x14ac:dyDescent="0.4">
+      <c r="A23" s="4">
+        <v>1</v>
+      </c>
+      <c r="B23" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="C23" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="D23" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="E23" s="6" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14" ht="84" x14ac:dyDescent="0.4">
+      <c r="A24" s="4">
+        <v>2</v>
+      </c>
+      <c r="B24" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="C24" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="D24" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="E24" s="6" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14" ht="126" x14ac:dyDescent="0.4">
+      <c r="A25" s="4">
+        <v>3</v>
+      </c>
+      <c r="B25" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="C25" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="D25" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="E25" s="6" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14" ht="63" x14ac:dyDescent="0.4">
+      <c r="A26" s="4">
+        <v>4</v>
+      </c>
+      <c r="B26" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C26" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="D26" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="E26" s="6" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
         <v>19</v>
       </c>
-      <c r="B19" s="10" t="s">
-        <v>27</v>
-      </c>
-      <c r="C19" s="13" t="s">
-        <v>28</v>
-      </c>
-      <c r="D19" s="13"/>
-      <c r="E19" s="9"/>
-    </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A20" t="s">
+    </row>
+    <row r="28" spans="1:14" ht="21" x14ac:dyDescent="0.4">
+      <c r="B28" s="11" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="21" spans="1:14" ht="21" x14ac:dyDescent="0.4">
-      <c r="A21" t="s">
+    <row r="29" spans="1:14" ht="46.8" x14ac:dyDescent="0.3">
+      <c r="B29" s="10" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="30" spans="1:14" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B30" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="B21" s="1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
+    </row>
+    <row r="31" spans="1:14" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B31" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="B22" s="12" t="s">
+    </row>
+    <row r="32" spans="1:14" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B32" s="10" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="23" spans="1:14" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" t="s">
+    <row r="33" spans="2:2" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B33" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="B23" s="11" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="24" spans="1:14" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B24" s="11" t="s">
-        <v>31</v>
-      </c>
-      <c r="C24" t="s">
+    </row>
+    <row r="34" spans="2:2" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B34" s="10" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="25" spans="1:14" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B25" s="11" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="26" spans="1:14" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B26" s="11" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="27" spans="1:14" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B27" s="11" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="28" spans="1:14" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B28" s="11" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="29" spans="1:14" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B29" s="11" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="30" spans="1:14" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B30" s="11" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="31" spans="1:14" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B31" s="11" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="32" spans="1:14" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B32" s="11" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B33" s="11" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" ht="43.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B34" s="11" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B35" s="11" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B36" s="11" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B37" s="11" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B38" s="11" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B39" s="11" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B40" s="11" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5" ht="21" x14ac:dyDescent="0.4">
-      <c r="B43" s="17" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5" ht="21" x14ac:dyDescent="0.4">
-      <c r="A45" s="5" t="s">
-        <v>64</v>
-      </c>
-      <c r="B45" s="5" t="s">
-        <v>65</v>
-      </c>
-      <c r="C45" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="D45" s="5" t="s">
-        <v>73</v>
-      </c>
-      <c r="E45" s="5" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="46" spans="1:5" ht="147" x14ac:dyDescent="0.4">
-      <c r="A46" s="5">
-        <v>1</v>
-      </c>
-      <c r="B46" s="5" t="s">
-        <v>66</v>
-      </c>
-      <c r="C46" s="7" t="s">
-        <v>69</v>
-      </c>
-      <c r="D46" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="E46" s="7" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5" ht="84" x14ac:dyDescent="0.4">
-      <c r="A47" s="5">
-        <v>2</v>
-      </c>
-      <c r="B47" s="5" t="s">
-        <v>67</v>
-      </c>
-      <c r="C47" s="5" t="s">
-        <v>70</v>
-      </c>
-      <c r="D47" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="E47" s="7" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5" ht="126" x14ac:dyDescent="0.4">
-      <c r="A48" s="5">
-        <v>3</v>
-      </c>
-      <c r="B48" s="5" t="s">
-        <v>68</v>
-      </c>
-      <c r="C48" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="D48" s="5" t="s">
-        <v>74</v>
-      </c>
-      <c r="E48" s="7" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5" ht="63" x14ac:dyDescent="0.4">
-      <c r="A49" s="5">
-        <v>4</v>
-      </c>
-      <c r="B49" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="C49" s="5" t="s">
-        <v>72</v>
-      </c>
-      <c r="D49" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="E49" s="7" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A50" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5" ht="21" x14ac:dyDescent="0.4">
-      <c r="B51" s="19" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B52" s="18" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="53" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B53" s="18" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="B54" s="18" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B55" s="18" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="56" spans="1:5" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="B56" s="18" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="57" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B57" s="18" t="s">
-        <v>47</v>
-      </c>
-    </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="1">
     <mergeCell ref="B1:D1"/>
-    <mergeCell ref="C19:D19"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -1532,55 +1585,1130 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CD54B983-8870-4E97-8523-6870C084920A}">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{58BE9CA1-A8D1-4032-A58D-C9A479769100}">
+  <dimension ref="A2:E26"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I19" sqref="I19"/>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData/>
+  <cols>
+    <col min="2" max="2" width="18.5546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="52.77734375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.21875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:5" ht="57.6" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="14"/>
+      <c r="B2" s="16" t="s">
+        <v>60</v>
+      </c>
+      <c r="C2" s="16" t="s">
+        <v>59</v>
+      </c>
+      <c r="D2" s="14"/>
+    </row>
+    <row r="3" spans="1:5" ht="18" x14ac:dyDescent="0.35">
+      <c r="A3" s="14"/>
+      <c r="B3" s="14" t="s">
+        <v>85</v>
+      </c>
+      <c r="C3" s="14"/>
+      <c r="D3" s="14"/>
+      <c r="E3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="18" x14ac:dyDescent="0.35">
+      <c r="A4" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="D4" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="E4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="18" x14ac:dyDescent="0.35">
+      <c r="A5" s="14">
+        <v>1</v>
+      </c>
+      <c r="B5" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="C5" s="14" t="s">
+        <v>65</v>
+      </c>
+      <c r="D5" s="14" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="18" x14ac:dyDescent="0.35">
+      <c r="A6" s="14">
+        <v>2</v>
+      </c>
+      <c r="B6" s="14" t="s">
+        <v>47</v>
+      </c>
+      <c r="C6" s="14" t="s">
+        <v>66</v>
+      </c>
+      <c r="D6" s="14" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="18" x14ac:dyDescent="0.35">
+      <c r="A7" s="14">
+        <v>3</v>
+      </c>
+      <c r="B7" s="14" t="s">
+        <v>61</v>
+      </c>
+      <c r="C7" s="14" t="s">
+        <v>67</v>
+      </c>
+      <c r="D7" s="14" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="18" x14ac:dyDescent="0.35">
+      <c r="A8" s="14">
+        <v>4</v>
+      </c>
+      <c r="B8" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="C8" s="14" t="s">
+        <v>68</v>
+      </c>
+      <c r="D8" s="14" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="18" x14ac:dyDescent="0.35">
+      <c r="A9" s="14">
+        <v>5</v>
+      </c>
+      <c r="B9" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="C9" s="14" t="s">
+        <v>73</v>
+      </c>
+      <c r="D9" s="14" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="18" x14ac:dyDescent="0.35">
+      <c r="A10" s="14">
+        <v>6</v>
+      </c>
+      <c r="B10" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="C10" s="14" t="s">
+        <v>70</v>
+      </c>
+      <c r="D10" s="14" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="18" x14ac:dyDescent="0.35">
+      <c r="A11" s="14">
+        <v>7</v>
+      </c>
+      <c r="B11" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="C11" s="14" t="s">
+        <v>71</v>
+      </c>
+      <c r="D11" s="14" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="18" x14ac:dyDescent="0.35">
+      <c r="A12" s="14">
+        <v>8</v>
+      </c>
+      <c r="B12" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="C12" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="D12" s="14" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="18" x14ac:dyDescent="0.35">
+      <c r="A13" s="14">
+        <v>9</v>
+      </c>
+      <c r="B13" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="C13" s="14" t="s">
+        <v>72</v>
+      </c>
+      <c r="D13" s="14" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="18" x14ac:dyDescent="0.35">
+      <c r="A14" s="14">
+        <v>10</v>
+      </c>
+      <c r="B14" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="C14" s="14" t="s">
+        <v>69</v>
+      </c>
+      <c r="D14" s="14" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="18" x14ac:dyDescent="0.35">
+      <c r="A15" s="14">
+        <v>11</v>
+      </c>
+      <c r="B15" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="C15" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="D15" s="14" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="18" x14ac:dyDescent="0.35">
+      <c r="A16" s="14">
+        <v>12</v>
+      </c>
+      <c r="B16" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="C16" s="14" t="s">
+        <v>75</v>
+      </c>
+      <c r="D16" s="14" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="18" x14ac:dyDescent="0.35">
+      <c r="A17" s="14">
+        <v>13</v>
+      </c>
+      <c r="B17" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="C17" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="D17" s="14" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="18" x14ac:dyDescent="0.35">
+      <c r="A18" s="14">
+        <v>14</v>
+      </c>
+      <c r="B18" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="C18" s="14" t="s">
+        <v>77</v>
+      </c>
+      <c r="D18" s="14" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" ht="18" x14ac:dyDescent="0.35">
+      <c r="A19" s="14">
+        <v>15</v>
+      </c>
+      <c r="B19" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="C19" s="14" t="s">
+        <v>78</v>
+      </c>
+      <c r="D19" s="14" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" ht="18" x14ac:dyDescent="0.35">
+      <c r="A20" s="14">
+        <v>16</v>
+      </c>
+      <c r="B20" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="C20" s="14" t="s">
+        <v>79</v>
+      </c>
+      <c r="D20" s="14" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" ht="18" x14ac:dyDescent="0.35">
+      <c r="A21" s="14">
+        <v>17</v>
+      </c>
+      <c r="B21" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="C21" s="14" t="s">
+        <v>80</v>
+      </c>
+      <c r="D21" s="14" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" ht="18" x14ac:dyDescent="0.35">
+      <c r="A22" s="14">
+        <v>18</v>
+      </c>
+      <c r="B22" s="14" t="s">
+        <v>62</v>
+      </c>
+      <c r="C22" s="14" t="s">
+        <v>81</v>
+      </c>
+      <c r="D22" s="14" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" ht="18" x14ac:dyDescent="0.35">
+      <c r="A23" s="14">
+        <v>19</v>
+      </c>
+      <c r="B23" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="C23" s="14" t="s">
+        <v>82</v>
+      </c>
+      <c r="D23" s="14" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" ht="18" x14ac:dyDescent="0.35">
+      <c r="A24" s="14">
+        <v>20</v>
+      </c>
+      <c r="B24" s="14" t="s">
+        <v>63</v>
+      </c>
+      <c r="C24" s="14" t="s">
+        <v>83</v>
+      </c>
+      <c r="D24" s="14" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" ht="18" x14ac:dyDescent="0.35">
+      <c r="A25" s="14">
+        <v>21</v>
+      </c>
+      <c r="B25" s="14" t="s">
+        <v>45</v>
+      </c>
+      <c r="C25" s="14" t="s">
+        <v>74</v>
+      </c>
+      <c r="D25" s="14" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" ht="18" x14ac:dyDescent="0.35">
+      <c r="A26" s="14">
+        <v>22</v>
+      </c>
+      <c r="B26" s="14" t="s">
+        <v>64</v>
+      </c>
+      <c r="C26" s="14" t="s">
+        <v>84</v>
+      </c>
+      <c r="D26" s="14" t="s">
+        <v>21</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{69B4BB3F-C50B-4238-BE79-8BBB47F7419A}">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CD54B983-8870-4E97-8523-6870C084920A}">
+  <dimension ref="A2:E16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I18" sqref="I18"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData/>
+  <cols>
+    <col min="2" max="2" width="12.88671875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.88671875" customWidth="1"/>
+    <col min="4" max="4" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="29.21875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A2" s="18"/>
+      <c r="B2" s="20" t="s">
+        <v>91</v>
+      </c>
+      <c r="C2" s="20" t="s">
+        <v>92</v>
+      </c>
+      <c r="D2" s="19"/>
+      <c r="E2" s="18"/>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A3" s="18"/>
+      <c r="B3" s="20"/>
+      <c r="C3" s="20"/>
+      <c r="D3" s="19"/>
+      <c r="E3" s="18"/>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A4" s="18"/>
+      <c r="B4" s="28" t="s">
+        <v>86</v>
+      </c>
+      <c r="C4" s="20"/>
+      <c r="D4" s="19"/>
+      <c r="E4" s="18"/>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B5" s="18"/>
+      <c r="C5" s="18"/>
+      <c r="D5" s="18"/>
+      <c r="E5" s="18"/>
+    </row>
+    <row r="6" spans="1:5" ht="18" x14ac:dyDescent="0.35">
+      <c r="A6" s="17" t="s">
+        <v>87</v>
+      </c>
+      <c r="B6" s="17" t="s">
+        <v>88</v>
+      </c>
+      <c r="C6" s="17" t="s">
+        <v>89</v>
+      </c>
+      <c r="D6" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="E6" s="17" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="36" x14ac:dyDescent="0.35">
+      <c r="A7" s="14">
+        <v>1</v>
+      </c>
+      <c r="B7" s="14" t="s">
+        <v>93</v>
+      </c>
+      <c r="C7" s="14" t="s">
+        <v>96</v>
+      </c>
+      <c r="D7" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="E7" s="15" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="36" x14ac:dyDescent="0.35">
+      <c r="A8" s="14">
+        <v>2</v>
+      </c>
+      <c r="B8" s="14" t="s">
+        <v>94</v>
+      </c>
+      <c r="C8" s="14" t="s">
+        <v>97</v>
+      </c>
+      <c r="D8" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="E8" s="15" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="72" x14ac:dyDescent="0.35">
+      <c r="A9" s="14">
+        <v>3</v>
+      </c>
+      <c r="B9" s="14" t="s">
+        <v>95</v>
+      </c>
+      <c r="C9" s="15" t="s">
+        <v>100</v>
+      </c>
+      <c r="D9" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="E9" s="15" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="36" x14ac:dyDescent="0.35">
+      <c r="B11" s="27" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="18" x14ac:dyDescent="0.35">
+      <c r="A12" s="24" t="s">
+        <v>87</v>
+      </c>
+      <c r="B12" s="25" t="s">
+        <v>1</v>
+      </c>
+      <c r="C12" s="24" t="s">
+        <v>29</v>
+      </c>
+      <c r="D12" s="25" t="s">
+        <v>20</v>
+      </c>
+      <c r="E12" s="26" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="144" x14ac:dyDescent="0.35">
+      <c r="A13" s="14">
+        <v>1</v>
+      </c>
+      <c r="B13" s="14" t="s">
+        <v>45</v>
+      </c>
+      <c r="C13" s="15" t="s">
+        <v>103</v>
+      </c>
+      <c r="D13" s="22" t="s">
+        <v>21</v>
+      </c>
+      <c r="E13" s="23" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="36" x14ac:dyDescent="0.35">
+      <c r="A14" s="14">
+        <v>2</v>
+      </c>
+      <c r="B14" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="C14" s="15" t="s">
+        <v>84</v>
+      </c>
+      <c r="D14" s="22" t="s">
+        <v>21</v>
+      </c>
+      <c r="E14" s="23" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="72" x14ac:dyDescent="0.35">
+      <c r="A15" s="14">
+        <v>3</v>
+      </c>
+      <c r="B15" s="14" t="s">
+        <v>47</v>
+      </c>
+      <c r="C15" s="15" t="s">
+        <v>100</v>
+      </c>
+      <c r="D15" s="22" t="s">
+        <v>21</v>
+      </c>
+      <c r="E15" s="23" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>19</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BE1D690C-8F0C-420A-821F-B5D0D3315569}">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{69B4BB3F-C50B-4238-BE79-8BBB47F7419A}">
+  <dimension ref="B2:F15"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="B11" sqref="B11:F15"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData/>
+  <cols>
+    <col min="3" max="3" width="16.109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="20.109375" customWidth="1"/>
+    <col min="5" max="5" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="24.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B2" s="18"/>
+      <c r="C2" s="20" t="s">
+        <v>91</v>
+      </c>
+      <c r="D2" s="20" t="s">
+        <v>107</v>
+      </c>
+      <c r="E2" s="19"/>
+      <c r="F2" s="18"/>
+    </row>
+    <row r="3" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B3" s="18"/>
+      <c r="C3" s="20"/>
+      <c r="D3" s="20"/>
+      <c r="E3" s="19"/>
+      <c r="F3" s="18"/>
+    </row>
+    <row r="4" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B4" s="18"/>
+      <c r="C4" s="28" t="s">
+        <v>86</v>
+      </c>
+      <c r="D4" s="20"/>
+      <c r="E4" s="19"/>
+      <c r="F4" s="18"/>
+    </row>
+    <row r="5" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="C5" s="18"/>
+      <c r="D5" s="18"/>
+      <c r="E5" s="18"/>
+      <c r="F5" s="18"/>
+    </row>
+    <row r="6" spans="2:6" ht="18" x14ac:dyDescent="0.35">
+      <c r="B6" s="17" t="s">
+        <v>87</v>
+      </c>
+      <c r="C6" s="17" t="s">
+        <v>88</v>
+      </c>
+      <c r="D6" s="17" t="s">
+        <v>89</v>
+      </c>
+      <c r="E6" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="F6" s="17" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="7" spans="2:6" ht="108" x14ac:dyDescent="0.35">
+      <c r="B7" s="14">
+        <v>1</v>
+      </c>
+      <c r="C7" s="14" t="s">
+        <v>93</v>
+      </c>
+      <c r="D7" s="14" t="s">
+        <v>96</v>
+      </c>
+      <c r="E7" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="F7" s="15" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="8" spans="2:6" ht="54" x14ac:dyDescent="0.35">
+      <c r="B8" s="14">
+        <v>2</v>
+      </c>
+      <c r="C8" s="14" t="s">
+        <v>108</v>
+      </c>
+      <c r="D8" s="15" t="s">
+        <v>109</v>
+      </c>
+      <c r="E8" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="F8" s="15" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="9" spans="2:6" ht="126" x14ac:dyDescent="0.35">
+      <c r="B9" s="14">
+        <v>3</v>
+      </c>
+      <c r="C9" s="14" t="s">
+        <v>95</v>
+      </c>
+      <c r="D9" s="15" t="s">
+        <v>100</v>
+      </c>
+      <c r="E9" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="F9" s="15" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="10" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B10" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="11" spans="2:6" ht="54" x14ac:dyDescent="0.35">
+      <c r="C11" s="27" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="12" spans="2:6" ht="36" x14ac:dyDescent="0.35">
+      <c r="B12" s="24" t="s">
+        <v>87</v>
+      </c>
+      <c r="C12" s="25" t="s">
+        <v>1</v>
+      </c>
+      <c r="D12" s="24" t="s">
+        <v>29</v>
+      </c>
+      <c r="E12" s="25" t="s">
+        <v>20</v>
+      </c>
+      <c r="F12" s="26" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="13" spans="2:6" ht="234" x14ac:dyDescent="0.35">
+      <c r="B13" s="14">
+        <v>1</v>
+      </c>
+      <c r="C13" s="14" t="s">
+        <v>45</v>
+      </c>
+      <c r="D13" s="15" t="s">
+        <v>103</v>
+      </c>
+      <c r="E13" s="22" t="s">
+        <v>21</v>
+      </c>
+      <c r="F13" s="23" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="14" spans="2:6" ht="108" x14ac:dyDescent="0.35">
+      <c r="B14" s="14">
+        <v>2</v>
+      </c>
+      <c r="C14" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="D14" s="15" t="s">
+        <v>84</v>
+      </c>
+      <c r="E14" s="22" t="s">
+        <v>21</v>
+      </c>
+      <c r="F14" s="23" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="15" spans="2:6" ht="162" x14ac:dyDescent="0.35">
+      <c r="B15" s="14">
+        <v>3</v>
+      </c>
+      <c r="C15" s="14" t="s">
+        <v>47</v>
+      </c>
+      <c r="D15" s="15" t="s">
+        <v>100</v>
+      </c>
+      <c r="E15" s="22" t="s">
+        <v>21</v>
+      </c>
+      <c r="F15" s="23" t="s">
+        <v>106</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6D424667-8DB3-4D4F-BFD8-E164BEDC535C}">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BE1D690C-8F0C-420A-821F-B5D0D3315569}">
+  <dimension ref="A3:F16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C30" sqref="C30"/>
+      <selection activeCell="C8" sqref="C8:E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData/>
+  <cols>
+    <col min="2" max="2" width="18.44140625" customWidth="1"/>
+    <col min="3" max="3" width="12.77734375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.5546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.44140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="1:6" ht="36" x14ac:dyDescent="0.35">
+      <c r="A3" s="21"/>
+      <c r="B3" s="30" t="s">
+        <v>110</v>
+      </c>
+      <c r="C3" s="30" t="s">
+        <v>111</v>
+      </c>
+      <c r="D3" s="21"/>
+      <c r="E3" s="21"/>
+    </row>
+    <row r="4" spans="1:6" ht="18" x14ac:dyDescent="0.35">
+      <c r="A4" s="21"/>
+      <c r="B4" s="29" t="s">
+        <v>112</v>
+      </c>
+      <c r="C4" s="21"/>
+      <c r="D4" s="21"/>
+      <c r="E4" s="21"/>
+    </row>
+    <row r="5" spans="1:6" ht="18" x14ac:dyDescent="0.35">
+      <c r="A5" s="17" t="s">
+        <v>87</v>
+      </c>
+      <c r="B5" s="17" t="s">
+        <v>113</v>
+      </c>
+      <c r="C5" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="D5" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="E5" s="17" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="36" x14ac:dyDescent="0.35">
+      <c r="A6" s="14">
+        <v>1</v>
+      </c>
+      <c r="B6" s="15" t="s">
+        <v>114</v>
+      </c>
+      <c r="C6" s="15" t="s">
+        <v>118</v>
+      </c>
+      <c r="D6" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="E6" s="14"/>
+    </row>
+    <row r="7" spans="1:6" ht="72" x14ac:dyDescent="0.35">
+      <c r="A7" s="14">
+        <v>2</v>
+      </c>
+      <c r="B7" s="15" t="s">
+        <v>115</v>
+      </c>
+      <c r="C7" s="15" t="s">
+        <v>119</v>
+      </c>
+      <c r="D7" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="E7" s="15" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="90" x14ac:dyDescent="0.35">
+      <c r="A8" s="14">
+        <v>3</v>
+      </c>
+      <c r="B8" s="15" t="s">
+        <v>116</v>
+      </c>
+      <c r="C8" s="15" t="s">
+        <v>121</v>
+      </c>
+      <c r="D8" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="E8" s="15" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="90" x14ac:dyDescent="0.35">
+      <c r="A9" s="14">
+        <v>4</v>
+      </c>
+      <c r="B9" s="15" t="s">
+        <v>117</v>
+      </c>
+      <c r="C9" s="15" t="s">
+        <v>120</v>
+      </c>
+      <c r="D9" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="E9" s="15" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="36" x14ac:dyDescent="0.35">
+      <c r="C12" s="27" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="36" x14ac:dyDescent="0.35">
+      <c r="B13" s="24" t="s">
+        <v>87</v>
+      </c>
+      <c r="C13" s="25" t="s">
+        <v>1</v>
+      </c>
+      <c r="D13" s="24" t="s">
+        <v>29</v>
+      </c>
+      <c r="E13" s="25" t="s">
+        <v>20</v>
+      </c>
+      <c r="F13" s="26" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="162" x14ac:dyDescent="0.35">
+      <c r="B14" s="14">
+        <v>1</v>
+      </c>
+      <c r="C14" s="14" t="s">
+        <v>45</v>
+      </c>
+      <c r="D14" s="15" t="s">
+        <v>103</v>
+      </c>
+      <c r="E14" s="22" t="s">
+        <v>21</v>
+      </c>
+      <c r="F14" s="23" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" ht="108" x14ac:dyDescent="0.35">
+      <c r="B15" s="14">
+        <v>2</v>
+      </c>
+      <c r="C15" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="D15" s="15" t="s">
+        <v>84</v>
+      </c>
+      <c r="E15" s="22" t="s">
+        <v>21</v>
+      </c>
+      <c r="F15" s="23" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" ht="162" x14ac:dyDescent="0.35">
+      <c r="B16" s="14">
+        <v>3</v>
+      </c>
+      <c r="C16" s="14" t="s">
+        <v>47</v>
+      </c>
+      <c r="D16" s="15" t="s">
+        <v>100</v>
+      </c>
+      <c r="E16" s="22" t="s">
+        <v>21</v>
+      </c>
+      <c r="F16" s="23" t="s">
+        <v>106</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6D424667-8DB3-4D4F-BFD8-E164BEDC535C}">
+  <dimension ref="A2:F20"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="O9" sqref="O9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="2" spans="1:5" ht="18" x14ac:dyDescent="0.35">
+      <c r="A2" s="21"/>
+      <c r="B2" s="21" t="s">
+        <v>124</v>
+      </c>
+      <c r="C2" s="21"/>
+      <c r="D2" s="21"/>
+      <c r="E2" s="21"/>
+    </row>
+    <row r="3" spans="1:5" ht="36" x14ac:dyDescent="0.35">
+      <c r="A3" s="21"/>
+      <c r="B3" s="29" t="s">
+        <v>112</v>
+      </c>
+      <c r="C3" s="21"/>
+      <c r="D3" s="21"/>
+      <c r="E3" s="21"/>
+    </row>
+    <row r="4" spans="1:5" ht="18" x14ac:dyDescent="0.35">
+      <c r="A4" s="17" t="s">
+        <v>87</v>
+      </c>
+      <c r="B4" s="17" t="s">
+        <v>113</v>
+      </c>
+      <c r="C4" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="D4" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="E4" s="17" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="126" x14ac:dyDescent="0.35">
+      <c r="A5" s="14">
+        <v>1</v>
+      </c>
+      <c r="B5" s="14" t="s">
+        <v>126</v>
+      </c>
+      <c r="C5" s="15" t="s">
+        <v>121</v>
+      </c>
+      <c r="D5" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="E5" s="15" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="54" x14ac:dyDescent="0.35">
+      <c r="A6" s="14">
+        <v>2</v>
+      </c>
+      <c r="B6" s="15" t="s">
+        <v>125</v>
+      </c>
+      <c r="C6" s="15" t="s">
+        <v>127</v>
+      </c>
+      <c r="D6" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="E6" s="14"/>
+    </row>
+    <row r="16" spans="1:5" ht="54" x14ac:dyDescent="0.35">
+      <c r="C16" s="27" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="17" spans="2:6" ht="36" x14ac:dyDescent="0.35">
+      <c r="B17" s="24" t="s">
+        <v>87</v>
+      </c>
+      <c r="C17" s="25" t="s">
+        <v>1</v>
+      </c>
+      <c r="D17" s="24" t="s">
+        <v>29</v>
+      </c>
+      <c r="E17" s="25" t="s">
+        <v>20</v>
+      </c>
+      <c r="F17" s="26" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="18" spans="2:6" ht="234" x14ac:dyDescent="0.35">
+      <c r="B18" s="14">
+        <v>1</v>
+      </c>
+      <c r="C18" s="14" t="s">
+        <v>45</v>
+      </c>
+      <c r="D18" s="15" t="s">
+        <v>103</v>
+      </c>
+      <c r="E18" s="22" t="s">
+        <v>21</v>
+      </c>
+      <c r="F18" s="23" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="19" spans="2:6" ht="108" x14ac:dyDescent="0.35">
+      <c r="B19" s="14">
+        <v>2</v>
+      </c>
+      <c r="C19" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="D19" s="15" t="s">
+        <v>84</v>
+      </c>
+      <c r="E19" s="22" t="s">
+        <v>21</v>
+      </c>
+      <c r="F19" s="23" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="20" spans="2:6" ht="162" x14ac:dyDescent="0.35">
+      <c r="B20" s="14">
+        <v>3</v>
+      </c>
+      <c r="C20" s="14" t="s">
+        <v>47</v>
+      </c>
+      <c r="D20" s="15" t="s">
+        <v>100</v>
+      </c>
+      <c r="E20" s="22" t="s">
+        <v>21</v>
+      </c>
+      <c r="F20" s="23" t="s">
+        <v>106</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>